--- a/medicine/Mort/Cimetière_d'El_Alia/Cimetière_d'El_Alia.xlsx
+++ b/medicine/Mort/Cimetière_d'El_Alia/Cimetière_d'El_Alia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27El_Alia</t>
+          <t>Cimetière_d'El_Alia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'El Alia est un cimetière algérien situé dans la commune d'Oued Smar non loin de la cité Yahia Boushaki, dans la banlieue est d'Alger, fruit de la donation en 1928 d'un terrain de 78 hectares par sa propriétaire dénommée El-Alia Hamza (originaire des Ouled Naïl), avant son départ à La Mecque.
 Ce cimetière, le plus grand d'Algérie avec plus de 250 000 tombes, comporte un carré dédié aux martyrs de la révolution algérienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27El_Alia</t>
+          <t>Cimetière_d'El_Alia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27El_Alia</t>
+          <t>Cimetière_d'El_Alia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Personnalités enterrées dans le cimetière d'El Alia</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En dehors des personnes répertoriées comme étant inhumées au cimetière d'El Alia ayant une page dans l'encyclopédie, d'autres personnalités sont inhumées dans le cimetière, notamment Khaled Aït-Mouheb, Abdelkader Blidi, Izza Bouzekri, Omar Driss, Abdelkrim Hassani, Ali Mellah, Nouredine Nait Mazi.
 </t>
